--- a/STOCK TRACKING SYSTEM/STOCKTRACKINGSYSTEM.xlsx
+++ b/STOCK TRACKING SYSTEM/STOCKTRACKINGSYSTEM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kucuk\Desktop\MIRACLE\MSSQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kucuk\Desktop\MIRACLE\MSSQL\STOCK TRACKING SYSTEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4F99BE-EB67-49D5-8BA8-64BB92692DC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4665AB-6497-41E1-901D-2152000E3529}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-3045" windowWidth="24240" windowHeight="13140" xr2:uid="{23091B18-FBB7-45A0-9D64-96DD7F293D9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{23091B18-FBB7-45A0-9D64-96DD7F293D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="122">
   <si>
     <t>PRODUCT</t>
   </si>
@@ -291,9 +291,6 @@
     <t>ADRES ID</t>
   </si>
   <si>
-    <t>YAPILAN İŞLEM(KURULUM/BAKIM ONARIM)</t>
-  </si>
-  <si>
     <t>EMPLOYEEID</t>
   </si>
   <si>
@@ -352,6 +349,48 @@
   </si>
   <si>
     <t>SERVICE_</t>
+  </si>
+  <si>
+    <t>YAPILAN İŞLEM(KURULUM/BAKIM/ONARIM)</t>
+  </si>
+  <si>
+    <t>COMPLAINTS</t>
+  </si>
+  <si>
+    <t>ŞİKAYET ID</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>NVARCHAR(500)</t>
+  </si>
+  <si>
+    <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>YORUM ID</t>
+  </si>
+  <si>
+    <t>ŞİKAYET TARİHİ</t>
+  </si>
+  <si>
+    <t>YORUM TARİHİ</t>
+  </si>
+  <si>
+    <t>POINTS</t>
+  </si>
+  <si>
+    <t>PUAN ID</t>
+  </si>
+  <si>
+    <t>INT DEFAULT</t>
+  </si>
+  <si>
+    <t>POINT</t>
+  </si>
+  <si>
+    <t>PUAN</t>
   </si>
 </sst>
 </file>
@@ -461,11 +500,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -476,6 +512,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85F81B2-4EAB-4041-9B22-C7DAD4697037}">
-  <dimension ref="A1:O74"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,7 +852,7 @@
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="29.140625" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="38.85546875" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" customWidth="1"/>
     <col min="9" max="9" width="21.140625" customWidth="1"/>
     <col min="13" max="13" width="16.85546875" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
@@ -818,24 +860,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="G1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="M1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -844,7 +886,7 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H2" t="s">
@@ -853,7 +895,7 @@
       <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N2" t="s">
@@ -864,7 +906,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B3" t="s">
@@ -954,7 +996,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
@@ -971,15 +1013,15 @@
       <c r="I7" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -987,7 +1029,7 @@
       <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="N8" t="s">
@@ -999,7 +1041,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
         <v>35</v>
@@ -1007,7 +1049,7 @@
       <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="N9" t="s">
@@ -1019,13 +1061,13 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
         <v>90</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>91</v>
-      </c>
-      <c r="C10" t="s">
-        <v>92</v>
       </c>
       <c r="M10" t="s">
         <v>23</v>
@@ -1038,24 +1080,24 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="G14" s="1" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="G14" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="M14" s="1" t="s">
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="M14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B15" t="s">
@@ -1064,7 +1106,7 @@
       <c r="C15" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H15" t="s">
@@ -1073,7 +1115,7 @@
       <c r="I15" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="M15" s="8" t="s">
         <v>2</v>
       </c>
       <c r="N15" t="s">
@@ -1102,7 +1144,7 @@
       <c r="I16" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="N16" t="s">
@@ -1122,7 +1164,7 @@
       <c r="I17" t="s">
         <v>25</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N17" t="s">
@@ -1142,7 +1184,7 @@
       <c r="I18" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N18" t="s">
@@ -1173,11 +1215,11 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
       <c r="G20" t="s">
         <v>47</v>
       </c>
@@ -1200,7 +1242,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22" t="s">
@@ -1222,19 +1264,19 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="G29" s="7" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="G29" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H29" t="s">
@@ -1245,7 +1287,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B30" t="s">
@@ -1254,7 +1296,7 @@
       <c r="C30" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H30" t="s">
@@ -1265,7 +1307,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B31" t="s">
@@ -1274,7 +1316,7 @@
       <c r="C31" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="3" t="s">
         <v>52</v>
       </c>
       <c r="H31" t="s">
@@ -1285,7 +1327,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B32" t="s">
@@ -1295,7 +1337,7 @@
         <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H32" t="s">
         <v>75</v>
@@ -1305,7 +1347,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B33" t="s">
@@ -1345,11 +1387,11 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>89</v>
+      <c r="A35" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
@@ -1387,11 +1429,11 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="A39" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1405,18 +1447,18 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" t="s">
         <v>99</v>
       </c>
-      <c r="B41" t="s">
-        <v>100</v>
-      </c>
       <c r="C41" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B42" t="s">
@@ -1425,11 +1467,11 @@
       <c r="C42" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="G42" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -1448,20 +1490,20 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" t="s">
         <v>101</v>
       </c>
-      <c r="B44" t="s">
-        <v>102</v>
-      </c>
       <c r="C44" t="s">
         <v>3</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="6" t="s">
         <v>81</v>
       </c>
       <c r="H44" t="s">
@@ -1473,15 +1515,15 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
-      </c>
-      <c r="G45" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45" s="5" t="s">
         <v>72</v>
       </c>
       <c r="H45" t="s">
@@ -1493,28 +1535,28 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
+        <v>92</v>
+      </c>
+      <c r="H46" t="s">
         <v>93</v>
       </c>
-      <c r="H46" t="s">
-        <v>94</v>
-      </c>
       <c r="I46" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
       <c r="G52" t="s">
         <v>2</v>
       </c>
@@ -1535,7 +1577,7 @@
       <c r="C53" t="s">
         <v>4</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G53" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H53" t="s">
@@ -1546,7 +1588,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B54" t="s">
@@ -1555,7 +1597,7 @@
       <c r="C54" t="s">
         <v>3</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G54" s="3" t="s">
         <v>52</v>
       </c>
       <c r="H54" t="s">
@@ -1658,14 +1700,72 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G68" s="1" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>111</v>
+      </c>
+      <c r="B68" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" t="s">
+        <v>112</v>
+      </c>
+      <c r="G68" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" t="s">
+        <v>62</v>
+      </c>
       <c r="G69" t="s">
         <v>2</v>
       </c>
@@ -1676,8 +1776,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G70" s="8" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G70" s="7" t="s">
         <v>55</v>
       </c>
       <c r="H70" t="s">
@@ -1687,8 +1787,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G71" s="6" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G71" s="5" t="s">
         <v>72</v>
       </c>
       <c r="H71" t="s">
@@ -1698,8 +1798,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G72" s="9" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G72" s="8" t="s">
         <v>86</v>
       </c>
       <c r="H72" t="s">
@@ -1709,20 +1809,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G73" t="s">
+        <v>107</v>
+      </c>
+      <c r="H73" t="s">
         <v>108</v>
-      </c>
-      <c r="H73" t="s">
-        <v>88</v>
       </c>
       <c r="I73" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G74" s="10" t="s">
-        <v>89</v>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C74" s="11"/>
+      <c r="G74" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="H74" t="s">
         <v>2</v>
@@ -1731,14 +1836,122 @@
         <v>3</v>
       </c>
     </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B76" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>66</v>
+      </c>
+      <c r="B78" t="s">
+        <v>116</v>
+      </c>
+      <c r="C78" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" t="s">
+        <v>118</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B83" t="s">
+        <v>56</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>120</v>
+      </c>
+      <c r="B85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
+    <mergeCell ref="A81:C81"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="G42:I42"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A64:C64"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="A52:C52"/>
